--- a/biology/Botanique/Pilosocereus_pachycladus/Pilosocereus_pachycladus.xlsx
+++ b/biology/Botanique/Pilosocereus_pachycladus/Pilosocereus_pachycladus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilosocereus pachycladus est une plante succulente de la famille des Cactus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilosocereus pachycladus pousse généralement comme un arbre et atteint des hauteurs de 2 à 10 mètres.
 Les pousses droites, lisses, gris-vert à bleu-vert ont un diamètre de 5,5 à 11 centimètres et ont 5 à 19 côtés sillonnés transversalement près de l'extrémité des pousses.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilosocereus pachycladus est une plante largement distribuée en jardinerie souvent en très jeunes plants de moins de 10 cm.
 C'est une plante très facile de culture si on la garde au chaud (elle ne supporte pas ou mal les températures inférieures à 12 degrés). Il convient de l'arroser régulièrement en période de croissance et très peu voire pas du tout en hiver.
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord-est du Brésil.
 </t>
@@ -610,9 +628,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (8 juillet 2016)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (8 juillet 2016) :
 sous-espèce Pilosocereus pachycladus subsp. pachycladus
 sous-espèce Pilosocereus pachycladus subsp. pernambucoensis (F. Ritter) Zappi</t>
         </is>
